--- a/public/terminal_config_template.xlsx
+++ b/public/terminal_config_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lawrence/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{993619C5-77B3-EA48-83E0-A04249A80044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4F91D02-93B2-6C45-BD65-EC1A2300D378}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6940" yWindow="4780" windowWidth="27640" windowHeight="16940" xr2:uid="{E1BDA431-75CD-F844-B159-543F1EE470D5}"/>
   </bookViews>
@@ -35,12 +35,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>TeminalName</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>TerminalID</t>
+  </si>
+  <si>
+    <t>Till One</t>
+  </si>
+  <si>
+    <t>Till Two</t>
+  </si>
+  <si>
+    <t>Till Three</t>
+  </si>
+  <si>
+    <t>Till Four</t>
+  </si>
+  <si>
+    <t>Till Five</t>
+  </si>
+  <si>
+    <t>TerminalName</t>
   </si>
 </sst>
 </file>
@@ -392,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97928381-9236-1D47-AED3-D8397FE34F23}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -405,10 +420,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2">
+        <v>123456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>234567</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>345678</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>456789</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>567890</v>
       </c>
     </row>
   </sheetData>
